--- a/mbs-perturbation/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6375</v>
+        <v>0.7417840375586855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7183098591549296</v>
+        <v>0.7417840375586855</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6754966887417218</v>
+        <v>0.7417840375586855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5840243955947523</v>
+        <v>0.7931639682330746</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7114427860696517</v>
+        <v>0.8169934640522876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6682242990654206</v>
+        <v>0.5841121495327103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6891566265060241</v>
+        <v>0.6811989100817439</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6062261418981177</v>
+        <v>0.8164187617919355</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7897196261682243</v>
+        <v>0.745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7934272300469484</v>
+        <v>0.6995305164319249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.791569086651054</v>
+        <v>0.7215496368038741</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8094734289933654</v>
+        <v>0.8027948599263814</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7451923076923077</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7276995305164319</v>
+        <v>0.7136150234741784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7363420427553445</v>
+        <v>0.7152941176470589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.760596442504794</v>
+        <v>0.7686636249421411</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7276995305164319</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7159353348729791</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7556260882981772</v>
+        <v>0.4413696576957835</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7176800348951275</v>
+        <v>0.7014490240345862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7270720898600326</v>
+        <v>0.6999210214558379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7216999559054247</v>
+        <v>0.6906466590995912</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7031892994578414</v>
+        <v>0.7244821745178632</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7417840375586855</v>
+        <v>0.6142131979695431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7417840375586855</v>
+        <v>0.6237113402061856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7417840375586855</v>
+        <v>0.618925831202046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7931639682330746</v>
+        <v>0.6072643213944097</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8169934640522876</v>
+        <v>0.6559633027522935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5841121495327103</v>
+        <v>0.7409326424870466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6811989100817439</v>
+        <v>0.6958637469586374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8164187617919355</v>
+        <v>0.7573847550878692</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.745</v>
+        <v>0.6801801801801802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6995305164319249</v>
+        <v>0.7823834196891192</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7215496368038741</v>
+        <v>0.7277108433734939</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8027948599263814</v>
+        <v>0.7277656108113882</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.8128654970760234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7136150234741784</v>
+        <v>0.7164948453608248</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7152941176470589</v>
+        <v>0.7616438356164383</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7686636249421411</v>
+        <v>0.817477698840874</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.7403314917127072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.6907216494845361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5934065934065934</v>
+        <v>0.7146666666666668</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4413696576957835</v>
+        <v>0.7827573313391379</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7014490240345862</v>
+        <v>0.7007107339381495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6999210214558379</v>
+        <v>0.7108487794455425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6906466590995912</v>
+        <v>0.7037621847634565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7244821745178632</v>
+        <v>0.7385299434947358</v>
       </c>
     </row>
   </sheetData>
